--- a/final_tables/TableX_RDP_recombination_stats.xlsx
+++ b/final_tables/TableX_RDP_recombination_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/mada-bat-picornavirus/final_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913C9263-BB32-9041-B496-349C8420295B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E889F47-7913-4A4B-B51B-B772E342B068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31560" yWindow="-1980" windowWidth="24380" windowHeight="20460" xr2:uid="{7173B92A-A4DA-FA49-BF6D-5131D4B31380}"/>
+    <workbookView xWindow="3960" yWindow="740" windowWidth="25440" windowHeight="17360" xr2:uid="{7173B92A-A4DA-FA49-BF6D-5131D4B31380}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -366,25 +366,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,7 +759,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L26"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -736,990 +773,990 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>222</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="5">
         <v>379</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="7">
         <v>4.1599999999999998E-2</v>
       </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="12">
+      <c r="H2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="8">
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="5">
         <v>156</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="7">
         <v>2.3900000000000001E-4</v>
       </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="13">
+      <c r="H3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="9">
         <v>1.25E-4</v>
       </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="12">
+      <c r="J3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="8">
         <v>3.4799999999999998E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>2023</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="5">
         <v>2343</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="13">
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="9">
         <v>2.93E-2</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="9">
         <v>2.96E-3</v>
       </c>
-      <c r="K4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="K4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>2187</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <v>2246</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="7">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="12">
+      <c r="H5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="8">
         <v>4.2500000000000003E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>391</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <v>100</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="7">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="13">
+      <c r="H6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="9">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="9">
         <v>5.0200000000000002E-3</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="8">
         <v>3.6900000000000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>7224</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="5">
         <v>560</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="7">
         <v>1.2E-4</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="9">
         <v>8.6899999999999996E-7</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="9">
         <v>1.4699999999999999E-8</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="6">
         <v>3.9834974000000002E-2</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="9">
         <v>3.8E-3</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <v>576</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="5">
         <v>7223</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="7">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="13">
+      <c r="H8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="9">
         <v>4.6299999999999996E-3</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="9">
         <v>5.2199999999999998E-3</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="9">
         <v>5.79E-3</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <v>3440</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="5">
         <v>4511</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="7">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="13">
+      <c r="H9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="9">
         <v>9.7199999999999999E-4</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="9">
         <v>1.2E-2</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>8205</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="5">
         <v>8240</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="10">
         <v>3.5899999999999998E-5</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="11">
         <v>1.36E-14</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="11">
         <v>4.1400000000000002E-20</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="11">
         <v>1.47E-4</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="11">
         <v>1.2800000000000001E-3</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="12">
         <v>1.7500000000000001E-8</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="4">
         <v>7645</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="5">
         <v>7702</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="7">
         <v>1.1600000000000001E-5</v>
       </c>
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="13">
+      <c r="H11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="9">
         <v>1.47E-4</v>
       </c>
-      <c r="J11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="13">
+      <c r="J11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="9">
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="8">
         <v>4.4299999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="4">
         <v>3195</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="5">
         <v>3490</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="7">
         <v>3.2700000000000002E-5</v>
       </c>
-      <c r="H12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="13">
+      <c r="H12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="9">
         <v>1.12E-2</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="9">
         <v>2.7E-2</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="9">
         <v>4.81E-3</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="8">
         <v>1.9699999999999999E-4</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="4">
         <v>4549</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="5">
         <v>5594</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="7">
         <v>3.5599999999999998E-3</v>
       </c>
-      <c r="H13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="13">
+      <c r="H13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="9">
         <v>1.33E-3</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="9">
         <v>2.8500000000000001E-3</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="9">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="4">
         <v>1229</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="5">
         <v>562</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="7">
         <v>7.8300000000000006E-5</v>
       </c>
-      <c r="H14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="13">
+      <c r="H14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="9">
         <v>2.61E-6</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="9">
         <v>8.2400000000000008E-3</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="9">
         <v>1.11E-4</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="5">
         <v>2.2357399999999999E-3</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="4">
         <v>2174</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="5">
         <v>7</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="7">
         <v>2.8500000000000001E-2</v>
       </c>
-      <c r="H15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="13">
+      <c r="H15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="9">
         <v>4.9699999999999996E-3</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="9">
         <v>1.91E-3</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="9">
         <v>4.0200000000000001E-3</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="4">
         <v>5280</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="5">
         <v>5377</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="7">
         <v>1.4799999999999999E-4</v>
       </c>
-      <c r="H16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" s="13">
+      <c r="H16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="9">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="9">
         <v>9.3200000000000002E-3</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="4">
         <v>105</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="5">
         <v>229</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="7">
         <v>1.1100000000000001E-3</v>
       </c>
-      <c r="H17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" s="13">
+      <c r="H17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="9">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="9">
         <v>3.56E-2</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="8">
         <v>8.6599999999999993E-3</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="4">
         <v>5495</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="5">
         <v>5762</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="7">
         <v>1.6400000000000001E-2</v>
       </c>
-      <c r="H18" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" s="13">
+      <c r="H18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="9">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="K18" t="s">
-        <v>9</v>
-      </c>
-      <c r="L18" s="2" t="s">
+      <c r="K18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="4">
         <v>4835</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="5">
         <v>5066</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="7">
         <v>2.3099999999999999E-2</v>
       </c>
-      <c r="H19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="13">
+      <c r="H19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="9">
         <v>6.1599999999999997E-3</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="4">
         <v>34</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="5">
         <v>376</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="13">
+      <c r="G20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="9">
         <v>7.3899999999999999E-3</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="9">
         <v>1.41E-3</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="9">
         <v>2.6499999999999999E-4</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="9">
         <v>2.64E-2</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="4">
         <v>4390</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="5">
         <v>4760</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="7">
         <v>1.6100000000000001E-3</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="9">
         <v>3.19E-4</v>
       </c>
-      <c r="I21" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21">
+      <c r="I21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="6">
         <v>2.1897395E-2</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="9">
         <v>2.7099999999999999E-2</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="4">
         <v>801</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="5">
         <v>1087</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="7">
         <v>4.4675886271169103E-3</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="9">
         <v>8.3512297805456801E-3</v>
       </c>
-      <c r="I22" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="13">
+      <c r="I22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="9">
         <v>1.77129654768343E-3</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="9">
         <v>2.1634006410992098E-5</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="4">
         <v>47</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="5">
         <v>144</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="7">
         <v>4.7849153526198403E-3</v>
       </c>
-      <c r="H23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" s="13">
+      <c r="H23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="9">
         <v>2.6838052182476301E-4</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="9">
         <v>1.9258648757986001E-3</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="8">
         <v>1.08844231994324E-2</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="4">
         <v>4043</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="5">
         <v>5766</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="10">
         <v>1.2300000000000001E-5</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="11">
         <v>1.6199999999999999E-7</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="11">
         <v>3.1199999999999999E-5</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="11">
         <v>2.98E-2</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="11">
         <v>7.0200000000000002E-3</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="12">
         <v>3.01E-4</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="4">
         <v>748</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="5">
         <v>796</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="7">
         <v>2.82623241347764E-2</v>
       </c>
-      <c r="H25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" t="s">
-        <v>9</v>
-      </c>
-      <c r="K25" s="13">
+      <c r="H25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="9">
         <v>3.1849441170988202E-2</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L25" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="13">
         <v>6807</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="14">
         <v>0</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="16">
         <v>1.6299999999999999E-3</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" s="16">
+      <c r="H26" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="17">
         <v>4.4299999999999998E-4</v>
       </c>
-      <c r="J26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L26" s="17">
+      <c r="J26" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="18">
         <v>1.91E-3</v>
       </c>
     </row>
